--- a/2019/Holmes/Holmes Report.xlsx
+++ b/2019/Holmes/Holmes Report.xlsx
@@ -1,32 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\Fishing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Holmes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6457CC-15E1-45AA-BA87-3096194C3479}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A49BDC-5B11-499D-A807-762AB442365D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{B30CD63E-51D2-4F2D-85E5-A616C715E5C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{B30CD63E-51D2-4F2D-85E5-A616C715E5C6}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
-    <sheet name="Overall Stats" sheetId="2" r:id="rId2"/>
+    <sheet name="2019" sheetId="3" r:id="rId2"/>
+    <sheet name="Overall Stats" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -77,6 +84,36 @@
   </si>
   <si>
     <t>Slow</t>
+  </si>
+  <si>
+    <t>Month/Day</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Fishing Report 2019 Holmes</t>
+  </si>
+  <si>
+    <t>1 Rainbow</t>
+  </si>
+  <si>
+    <t>12 Rainbow</t>
+  </si>
+  <si>
+    <t>6 Rainbow</t>
+  </si>
+  <si>
+    <t>2 Rainbow</t>
+  </si>
+  <si>
+    <t>9 Rainbow</t>
+  </si>
+  <si>
+    <t>4 Rainbow</t>
   </si>
 </sst>
 </file>
@@ -182,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,17 +245,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,7 +515,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2412,7 +2460,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F2" sqref="F2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2435,20 +2483,20 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -2496,12 +2544,12 @@
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -2540,7 +2588,7 @@
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2555,11 +2603,329 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243B7453-19EB-4D53-B76B-488E5E2B5072}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>25</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="7">
+        <v>52</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7">
+        <v>6</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="7">
+        <f>SUM(G4/E13*100)</f>
+        <v>100</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7">
+        <v>9</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>22</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
+        <v>24</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7">
+        <v>17</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9">
+        <f>SUM(E4:E12)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="19">
+        <f>AVERAGE(E4:E12)</f>
+        <v>5.7777777777777777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534534C3-B346-40AC-A74B-EBA4242E01FF}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2568,12 +2934,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -2582,16 +2948,17 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>8</v>
+        <f>SUM('2018'!F4+'2019'!G4)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -2609,8 +2976,8 @@
         <v>9</v>
       </c>
       <c r="B8" s="9">
-        <f>SUM('2018'!D6)</f>
-        <v>8</v>
+        <f>SUM('2018'!D6+'2019'!E13)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2618,23 +2985,24 @@
         <v>10</v>
       </c>
       <c r="B9" s="9">
-        <v>2</v>
+        <f>SUM('2018'!D7+'2019'!E14)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="19">
         <f>SUM(B8/B9)</f>
-        <v>4</v>
+        <v>5.4545454545454541</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
     </row>

--- a/2019/Holmes/Holmes Report.xlsx
+++ b/2019/Holmes/Holmes Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Holmes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A49BDC-5B11-499D-A807-762AB442365D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A048813-0268-4370-8EE6-DA3A85274690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{B30CD63E-51D2-4F2D-85E5-A616C715E5C6}"/>
+    <workbookView xWindow="5115" yWindow="1410" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{B30CD63E-51D2-4F2D-85E5-A616C715E5C6}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
@@ -251,6 +251,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -258,14 +266,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2483,20 +2483,20 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -2544,12 +2544,12 @@
       <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -2606,7 +2606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243B7453-19EB-4D53-B76B-488E5E2B5072}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -2627,32 +2627,32 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="G1" s="16"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -2675,7 +2675,7 @@
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7">
@@ -2697,7 +2697,7 @@
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7"/>
@@ -2711,18 +2711,18 @@
       <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="7"/>
@@ -2744,7 +2744,7 @@
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="7"/>
@@ -2767,7 +2767,7 @@
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="7"/>
@@ -2789,7 +2789,7 @@
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="7"/>
@@ -2811,7 +2811,7 @@
       <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="7"/>
@@ -2833,7 +2833,7 @@
       <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
@@ -2855,7 +2855,7 @@
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="7"/>
@@ -2897,7 +2897,7 @@
       <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="16">
         <f>AVERAGE(E4:E12)</f>
         <v>5.7777777777777777</v>
       </c>
@@ -2924,7 +2924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534534C3-B346-40AC-A74B-EBA4242E01FF}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2934,12 +2934,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -2953,12 +2953,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -2993,7 +2993,7 @@
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="16">
         <f>SUM(B8/B9)</f>
         <v>5.4545454545454541</v>
       </c>
